--- a/steigenberger/src/main/resources/biddingreport.xlsx
+++ b/steigenberger/src/main/resources/biddingreport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F1CB48-FCD3-4A83-9070-675AC0FAC5DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088D4CD2-84AD-4AF3-B6E7-5FF441F67E08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>需求流水号</t>
   </si>
@@ -173,6 +173,14 @@
   </si>
   <si>
     <t>${order.quoteStatusDesc}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${order.makingOrder}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,10 +606,11 @@
     <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.4140625" customWidth="1"/>
+    <col min="19" max="19" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,10 +663,13 @@
         <v>34</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -710,6 +722,9 @@
         <v>35</v>
       </c>
       <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
         <v>29</v>
       </c>
     </row>
